--- a/data-raw/TeachersonTwitter.xlsx
+++ b/data-raw/TeachersonTwitter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anneliserussell/Dropbox/TwitterTeachers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrosenb8/seths-policy/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9A1A20D-EADD-6741-922E-F81584967102}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB0C0B3-D8FD-F94B-A957-40CE6C78C18B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{267EEEBA-59ED-E347-A113-515AB57B657F}"/>
   </bookViews>
@@ -222,9 +222,6 @@
     <t>District of Columbia</t>
   </si>
   <si>
-    <t>Deleware</t>
-  </si>
-  <si>
     <t>Florida</t>
   </si>
   <si>
@@ -391,6 +388,9 @@
   </si>
   <si>
     <t>Coordinators-Teachers</t>
+  </si>
+  <si>
+    <t>Delaware</t>
   </si>
 </sst>
 </file>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AE8986-45DE-2C4B-9C11-2515D6C07CA5}">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S56" sqref="S56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -831,7 +831,7 @@
         <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -840,13 +840,13 @@
         <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="I1" t="s">
         <v>54</v>
@@ -858,28 +858,28 @@
         <v>55</v>
       </c>
       <c r="L1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -976,7 +976,7 @@
         <v>67443</v>
       </c>
       <c r="M3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N3" s="4">
         <v>0</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="9" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="11" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="12" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="13" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="14" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="15" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="16" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="17" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="18" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="19" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="20" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="21" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="22" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="23" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="24" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="25" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="26" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="27" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="28" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="29" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="30" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="31" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="32" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="33" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="34" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="35" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="36" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="37" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="38" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -3034,10 +3034,10 @@
     </row>
     <row r="39" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" t="s">
         <v>112</v>
-      </c>
-      <c r="B39" t="s">
-        <v>113</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="40" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="41" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="42" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
@@ -3249,7 +3249,7 @@
     </row>
     <row r="43" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="44" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="45" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="46" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="47" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
@@ -3532,7 +3532,7 @@
     </row>
     <row r="48" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="49" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="50" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="51" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="52" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
         <v>52</v>
